--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3461820.821934669</v>
+        <v>3579239.290267615</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10987493.74438082</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7912381.102389309</v>
+        <v>7959077.939395726</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.318871333599</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>81.11593663322328</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.985757550887024</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>194.0270836661628</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>72.85287333943701</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>163.0915657041714</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>65.0588499087778</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>116.1943797821497</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>347.6251754910821</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9017973847138</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>304.6449240050903</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>79.36114519233965</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>131.5211463642705</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>196.6146090073958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.523853771731</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>94.66132674510092</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>26.74594152196229</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>137.8837217050821</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>192.8302082703927</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8216673841669</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>2.751755242560663</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>180.3612999812127</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.4273531496278</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2358178295294</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>90.83656612960216</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>52.91369288257712</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>109.1623230749908</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.1185786361433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>186.8176706595559</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5262552810684</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>22.1069545883392</v>
       </c>
       <c r="V25" t="n">
-        <v>50.49265242092939</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>41.74133133758758</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>171.9586765026952</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>119.6760079449705</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>145.0891016767042</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>119.8264588081767</v>
+        <v>152.3242997534466</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>28.23631843387907</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>806.0470106353782</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>1290.918127343475</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>932.6524287367247</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>546.8641761384804</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>135.8782713488728</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1465.195303554219</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.055971578407</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2369.468873893693</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2221.5557803113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2074.665832813389</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2074.665832813389</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2074.665832813389</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>2519.585513306029</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>2519.585513306029</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>2519.585513306029</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>2519.585513306029</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>2519.585513306029</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>2519.585513306029</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>2519.585513306029</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1777.328963278159</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.366446337747</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1050.100747730997</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>664.3124951327525</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>590.7237341838262</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>173.6359524202537</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>173.6359524202537</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>75.17723181374775</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>192.4307036906658</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>745.243961936865</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1376.961772920177</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>2004.269440980023</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2551.430645747101</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2540.93405351505</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2540.93405351505</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2540.93405351505</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2540.93405351505</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="W5" t="n">
-        <v>2540.93405351505</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="X5" t="n">
-        <v>2167.468295253971</v>
+        <v>2477.381446291977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1777.328963278159</v>
+        <v>2477.381446291977</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>121.5508014837215</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>625.9123413498401</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1266.457690816945</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1934.002090843955</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2483.438099596678</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.551098059417</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9621601778723</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>372.9621601778723</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>372.9621601778723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>372.9621601778723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>339.8239063167927</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>545.0935070360306</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>923.3997019991118</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>715.9594172515172</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>490.3302205638821</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>490.3302205638821</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>490.3302205638821</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>490.3302205638821</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9621601778723</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9621601778723</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2012.93017779693</v>
+        <v>2056.857547699251</v>
       </c>
       <c r="C8" t="n">
-        <v>2012.93017779693</v>
+        <v>2056.857547699251</v>
       </c>
       <c r="D8" t="n">
-        <v>1654.66447919018</v>
+        <v>1705.721006799168</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.876226591935</v>
+        <v>1319.932754200924</v>
       </c>
       <c r="F8" t="n">
-        <v>857.8903218023279</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>441.8279002016068</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>134.1057547419197</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>160.4715733093444</v>
+        <v>165.9557701207384</v>
       </c>
       <c r="K8" t="n">
-        <v>370.8688355087382</v>
+        <v>569.4228831407838</v>
       </c>
       <c r="L8" t="n">
-        <v>668.7870057235918</v>
+        <v>1122.236141386983</v>
       </c>
       <c r="M8" t="n">
-        <v>1031.947810217668</v>
+        <v>1753.953952370295</v>
       </c>
       <c r="N8" t="n">
-        <v>1405.598744580224</v>
+        <v>2381.261620430141</v>
       </c>
       <c r="O8" t="n">
-        <v>1745.091465158277</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2280.32170681552</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
-        <v>2634.021555367061</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2564.29944822603</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2564.29944822603</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2564.29944822603</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2564.29944822603</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="W8" t="n">
-        <v>2211.530792955916</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="X8" t="n">
-        <v>2211.530792955916</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.93017779693</v>
+        <v>2443.457387763373</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>942.6288196390852</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>768.1757903579582</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>619.241380696707</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>460.0039256912514</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>313.4693677181364</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>176.5765861305293</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>80.95908436780111</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>98.5728341602963</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>514.8277697149106</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>768.8063540540982</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1084.544250754289</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N9" t="n">
-        <v>1423.047434988447</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1752.007763148898</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2278.652379757243</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
-        <v>2578.002589639727</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2578.002589639727</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2438.726103068937</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2243.948114917026</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2015.845420589584</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1780.693312357841</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1526.45595562964</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1318.604455424107</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1110.844156659153</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>695.4101511010945</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>526.4739681731876</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>526.4739681731876</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>523.6944174231263</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4960,52 +4962,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>68.29484095953741</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>221.7161909557063</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>473.5691324317002</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>749.5018699245563</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>1024.308160081679</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.119952214244</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
-        <v>1442.088341411376</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q10" t="n">
-        <v>1483.254045441247</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1483.254045441247</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1301.070914147093</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1077.406921066661</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>788.2798323499642</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V10" t="n">
-        <v>788.2798323499642</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>695.4101511010945</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>695.4101511010945</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282753</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2105.308438285949</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5300,28 +5302,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>984.9192356072721</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>815.9830526793652</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>665.8664132670294</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>517.9533196846363</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>371.0633721867259</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2086.797572684546</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1797.722346028744</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5495,55 +5497,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,22 +5579,22 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5604,7 +5606,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057737</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y19" t="n">
-        <v>1016.58045691144</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,34 +5770,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,55 +5886,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5944,16 +5946,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>868.6673633290468</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6178,19 +6180,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V25" t="n">
-        <v>1704.428878389244</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.7594328861248</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>390.823249958218</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D28" t="n">
-        <v>240.7066105458822</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>135.97962399503</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>135.97962399503</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2023.366912656562</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1734.29168600076</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.607197794873</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.190027757912</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>962.2004768598947</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.4078977163646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>2876.560776129205</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7193,31 +7195,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7421,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,28 +7435,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>612.4182386381638</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C43" t="n">
-        <v>612.4182386381638</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381638</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557706</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2076.025718408601</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="U43" t="n">
-        <v>1786.950491752799</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V43" t="n">
-        <v>1532.266003546912</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W43" t="n">
-        <v>1242.848833509951</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X43" t="n">
-        <v>1014.859282611934</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y43" t="n">
-        <v>794.0667034684035</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7630,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8231,10 +8233,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8306,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>473.6238973478236</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>21.63976862165688</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>91.69549323938445</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>282.8101615601163</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>168.8820637317194</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>41.93519368670201</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.70075409648192</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>126.5688841976861</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>112.6104454096917</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>108.2431272522975</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>40.3204386478848</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.46607471595149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>38.89198472948124</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>105.0583980710264</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>264.077519800905</v>
       </c>
       <c r="V25" t="n">
-        <v>201.6449909028986</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>98.55338150863628</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>25.74504007796078</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>80.62055371233291</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>39.70888054695394</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.57899151911161</v>
+        <v>65.08115057384163</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725831.8306079261</v>
+        <v>748222.7364204483</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>698611.0737468079</v>
+        <v>725831.8306079261</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>196446.3877966352</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>216251.1782926597</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>568187.2017999989</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>176266.9759012794</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>138774.3233601413</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.53656668272</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682769</v>
-      </c>
       <c r="G4" t="n">
-        <v>5677.536566682812</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682797</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
@@ -26448,13 +26450,13 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682795</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682706</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>87562.0451708468</v>
-      </c>
-      <c r="D5" t="n">
-        <v>93066.71427571896</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123285.7356165248</v>
+        <v>-123285.735616525</v>
       </c>
       <c r="C6" t="n">
-        <v>299188.228255701</v>
+        <v>466682.1435980195</v>
       </c>
       <c r="D6" t="n">
-        <v>311371.4211959426</v>
+        <v>310878.3375042244</v>
       </c>
       <c r="E6" t="n">
-        <v>71623.33652266639</v>
+        <v>-131242.1530581413</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226653</v>
+        <v>639810.5383226655</v>
       </c>
       <c r="G6" t="n">
         <v>639810.5383226655</v>
       </c>
       <c r="H6" t="n">
+        <v>639810.5383226653</v>
+      </c>
+      <c r="I6" t="n">
         <v>639810.5383226655</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>463387.3191300725</v>
+      </c>
+      <c r="K6" t="n">
+        <v>639810.5383226657</v>
+      </c>
+      <c r="L6" t="n">
         <v>639810.5383226656</v>
       </c>
-      <c r="J6" t="n">
-        <v>463387.3191300724</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>515602.0276146071</v>
+      </c>
+      <c r="N6" t="n">
         <v>639810.5383226654</v>
       </c>
-      <c r="L6" t="n">
-        <v>639810.5383226654</v>
-      </c>
-      <c r="M6" t="n">
-        <v>515602.027614607</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>639810.5383226656</v>
       </c>
-      <c r="O6" t="n">
-        <v>639810.5383226654</v>
-      </c>
       <c r="P6" t="n">
-        <v>639810.5383226655</v>
+        <v>639810.5383226656</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>845.9838574422923</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26799,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>215.7324361209784</v>
       </c>
-      <c r="D3" t="n">
-        <v>252.5077571042273</v>
-      </c>
       <c r="E3" t="n">
-        <v>521.9916428993814</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.4149703298816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>332.6682333875717</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>128.9798642414512</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>92.49591467042822</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>334.0231724022744</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>164.6606927659635</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>114.7731302731595</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>109.5152756068875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7.057866129600825</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>208.2082341432122</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0735776974028</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>189.6233296486578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>143.6822074040085</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4654346974972</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.663693612709</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.5731863957976</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.6993559852092</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>17.06921519154852</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.400940130421273</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>34.82987811067687</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>131.1147443780663</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>288.6505423943428</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>432.6123381150754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>536.6938596314556</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>597.1753286758349</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>606.8382498213944</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>573.0201513995178</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>489.0594419297425</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>367.2632735090305</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>213.6343054675755</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>77.49892322197483</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>14.88761542091913</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2720752104337018</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.819663391479648</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>17.57411749139555</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>62.65069132945279</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>171.9182855958908</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>293.8357328250272</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>395.0984043649121</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>461.0612023060493</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>473.264120400665</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>432.9442105157739</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>347.4758979747408</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>232.2784357264196</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>112.978749867482</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>33.79944939875571</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>7.334520424428928</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1197146968078716</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.525544660961511</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>13.56347889473053</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>45.87728853146071</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>107.8560075299788</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>177.2405524280736</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>226.8068853214959</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>239.1360598996302</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>233.4499388905921</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>215.6288035329961</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>184.5076924493812</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>127.7435624737861</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>68.59403539196028</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>26.58608286421104</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>6.518236278653726</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08321152696153704</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>742.9354859824763</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34448,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>340.7767527663067</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>118.4378503807253</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>674.2872727545556</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>131.427271174484</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>107.6046378676565</v>
+        <v>113.1442306064383</v>
       </c>
       <c r="K8" t="n">
-        <v>212.5224870700948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>300.9274446614683</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>366.8290954485622</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>377.4251862248034</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>342.921939977831</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>540.6366077345892</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>357.2725742944857</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
-        <v>63.76518752642582</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>45.08065892922409</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>420.4595308632468</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>256.544024585038</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>318.9271683840309</v>
+        <v>350.1925044939465</v>
       </c>
       <c r="N9" t="n">
-        <v>341.9224083173317</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>332.2831597580314</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>531.9642592003477</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.3739493762472</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.49682741330602</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9710606021908</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>254.396910581812</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>278.7199368614708</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>277.5821112698206</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>240.2139314470358</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>181.7862517142747</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.58151922209176</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683788</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>302.474889585677</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>611.593773899143</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902436</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579239.290267615</v>
+        <v>3574933.573891545</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7959077.939395726</v>
+        <v>7959077.939395724</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>81.11593663322328</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>91.80092000665026</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>160.1743669966221</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>194.0270836661628</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>198.0720555297671</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>163.0915657041714</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.0588499087778</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>347.6251754910821</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>85.40554325729182</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>2.751755242560663</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>32.2509097230727</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>90.83656612960216</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.91369288257712</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>113.5262552810684</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1069545883392</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>41.74133133758758</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812101</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>119.6760079449705</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>145.0891016767042</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3672,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>25.52471385612597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>140.5758943588669</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>152.3242997534466</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>28.23631843387907</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1659.880644283887</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1290.918127343475</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>932.6524287367247</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>546.8641761384804</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>135.8782713488728</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2549.392199521796</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2295.630414159888</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>388.7731165986622</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1152.640269254486</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2477.381446291977</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2477.381446291977</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2477.381446291977</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>2477.381446291977</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,46 +4649,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2056.857547699251</v>
+        <v>591.1746708833286</v>
       </c>
       <c r="C8" t="n">
-        <v>2056.857547699251</v>
+        <v>591.1746708833286</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>591.1746708833286</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>591.1746708833286</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>165.9557701207384</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>569.4228831407838</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1122.236141386983</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1753.953952370295</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>2381.261620430141</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
         <v>2551.430645747101</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.457387763373</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.457387763373</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.457387763373</v>
+        <v>1367.913842923262</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.457387763373</v>
+        <v>977.7745109474504</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>972.6029207988471</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.4101511010945</v>
+        <v>390.8703919199697</v>
       </c>
       <c r="C10" t="n">
-        <v>526.4739681731876</v>
+        <v>221.9342089920628</v>
       </c>
       <c r="D10" t="n">
-        <v>526.4739681731876</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E10" t="n">
-        <v>523.6944174231263</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>376.804469925216</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>923.3997019991118</v>
+        <v>1021.300986791757</v>
       </c>
       <c r="X10" t="n">
-        <v>695.4101511010945</v>
+        <v>793.3114358937396</v>
       </c>
       <c r="Y10" t="n">
-        <v>695.4101511010945</v>
+        <v>572.5188567502095</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.308438285949</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>984.9192356072721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>815.9830526793652</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>665.8664132670294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>517.9533196846363</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>371.0633721867259</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,67 +5497,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2757.723669558406</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>2588.787486630499</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>2479.398563024107</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>2479.398563024107</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>2479.398563024107</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3388.154264430193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290468</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>868.6673633290468</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,25 +5968,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876693</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753335</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929404</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>135.97962399503</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>135.97962399503</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6481,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687887</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
         <v>2129.438138565707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407056</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263526</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687887</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2387.388512467612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171301</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892232</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768874</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4891497944943</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290469</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.199616443682</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2043.199616443682</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1788.515128237795</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302817</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159287</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>264.0500279773688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>91.69549323938445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,7 +8467,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>168.8820637317194</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>73.09871788457454</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.221113634493629e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>126.5688841976861</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>112.6104454096917</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>40.3204386478848</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0583980710264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>264.077519800905</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>98.55338150863628</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>25.74504007796078</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>80.62055371233291</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.6085800303772</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>65.08115057384163</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670775.4964643539</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643536</v>
+        <v>670775.4964643538</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643539</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
@@ -26331,25 +26331,25 @@
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132554</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682784</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682797</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682786</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
-      </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.53656668272</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.53656668272</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
@@ -26456,10 +26456,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682766</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123285.735616525</v>
+        <v>-123285.7356165249</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980195</v>
+        <v>466682.1435980197</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.3375042244</v>
+        <v>310878.337504224</v>
       </c>
       <c r="E6" t="n">
-        <v>-131242.1530581413</v>
+        <v>-131589.5323124979</v>
       </c>
       <c r="F6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="G6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="H6" t="n">
-        <v>639810.5383226653</v>
+        <v>639463.1590683087</v>
       </c>
       <c r="I6" t="n">
-        <v>639810.5383226655</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="J6" t="n">
-        <v>463387.3191300725</v>
+        <v>463039.9398757157</v>
       </c>
       <c r="K6" t="n">
-        <v>639810.5383226657</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="L6" t="n">
-        <v>639810.5383226656</v>
+        <v>639463.1590683085</v>
       </c>
       <c r="M6" t="n">
-        <v>515602.0276146071</v>
+        <v>515254.6483602501</v>
       </c>
       <c r="N6" t="n">
-        <v>639810.5383226654</v>
+        <v>639463.1590683084</v>
       </c>
       <c r="O6" t="n">
-        <v>639810.5383226656</v>
+        <v>639463.159068309</v>
       </c>
       <c r="P6" t="n">
-        <v>639810.5383226656</v>
+        <v>639463.1590683087</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>332.6682333875717</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,19 +27432,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>124.6474003510075</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>51.97117195339681</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>92.49591467042822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>208.8039902119444</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>164.6606927659635</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.7731302731595</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>19.88405377167465</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>7.057866129600825</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>321.4705024844196</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>143.6822074040085</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>254.2720886135183</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>533.6019216797993</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>618.3341264639744</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,28 +33259,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>513.0745614164377</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,28 +33496,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>303.402437346475</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113952</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>303.402437346475</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>307.3280120589134</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,22 +34453,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.1442306064383</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35187,7 +35187,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>350.1925044939465</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>273.7620932913065</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902399</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>395.0475418999251</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>476.2000925419561</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>374.5201816365636</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>165.560998372116</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280619</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>165.560998372116</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3574933.573891545</v>
+        <v>3576694.10419433</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>285.9011577607957</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>91.80092000665026</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>160.1743669966221</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>198.0720555297671</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>219.8163332522606</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>162.8254537672733</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>85.40554325729182</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>32.2509097230727</v>
+        <v>180.8663827412851</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5758943588669</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1139.506187451444</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>753.7179348531999</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>342.7320300635924</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2549.392199521796</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2295.630414159888</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1964.567526816317</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.567526816317</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>388.7731165986622</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1152.640269254486</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1152.640269254486</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1152.640269254486</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.640269254486</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2420.083701293907</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2089.020813950336</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1736.252158680222</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>1736.252158680222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1152.640269254486</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.1746708833286</v>
+        <v>238.4060156132145</v>
       </c>
       <c r="C8" t="n">
-        <v>591.1746708833286</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="D8" t="n">
-        <v>591.1746708833286</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="E8" t="n">
-        <v>591.1746708833286</v>
+        <v>73.93586029273641</v>
       </c>
       <c r="F8" t="n">
-        <v>504.9064453709126</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4843,13 +4843,13 @@
         <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1367.913842923262</v>
+        <v>1015.145187653148</v>
       </c>
       <c r="Y8" t="n">
-        <v>977.7745109474504</v>
+        <v>625.0058556773363</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>390.8703919199697</v>
+        <v>240.753752507634</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9342089920628</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="D10" t="n">
         <v>71.81756957972706</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>1021.300986791757</v>
+        <v>871.1843473794212</v>
       </c>
       <c r="X10" t="n">
-        <v>793.3114358937396</v>
+        <v>643.1947964814038</v>
       </c>
       <c r="Y10" t="n">
-        <v>572.5188567502095</v>
+        <v>422.4022173378737</v>
       </c>
     </row>
     <row r="11">
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5178,25 +5178,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,19 +5366,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5600,7 +5600,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
         <v>716.6687843969308</v>
@@ -5652,25 +5652,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,16 +5968,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,10 +6080,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,37 +6454,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718124</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718124</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.528408326419</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,7 +7183,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
         <v>261.0127623330919</v>
@@ -7323,61 +7323,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7739,10 +7739,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>73.09871788457454</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.221113634493629e-12</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6085800303772</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670775.4964643538</v>
+        <v>670775.4964643536</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
@@ -26328,31 +26328,31 @@
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132557</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132554</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,31 +26423,31 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682784</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682797</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682786</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682745</v>
@@ -26456,7 +26456,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682766</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26524,46 +26524,46 @@
         <v>-123285.7356165249</v>
       </c>
       <c r="C6" t="n">
-        <v>466682.1435980197</v>
+        <v>466682.1435980196</v>
       </c>
       <c r="D6" t="n">
-        <v>310878.337504224</v>
+        <v>310878.3375042242</v>
       </c>
       <c r="E6" t="n">
-        <v>-131589.5323124979</v>
+        <v>-131276.8909835768</v>
       </c>
       <c r="F6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="G6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972296</v>
       </c>
       <c r="H6" t="n">
-        <v>639463.1590683087</v>
+        <v>639775.8003972301</v>
       </c>
       <c r="I6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.8003972297</v>
       </c>
       <c r="J6" t="n">
-        <v>463039.9398757157</v>
+        <v>463352.5812046365</v>
       </c>
       <c r="K6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.80039723</v>
       </c>
       <c r="L6" t="n">
-        <v>639463.1590683085</v>
+        <v>639775.80039723</v>
       </c>
       <c r="M6" t="n">
-        <v>515254.6483602501</v>
+        <v>515567.2896891711</v>
       </c>
       <c r="N6" t="n">
-        <v>639463.1590683084</v>
+        <v>639775.8003972296</v>
       </c>
       <c r="O6" t="n">
-        <v>639463.159068309</v>
+        <v>639775.8003972298</v>
       </c>
       <c r="P6" t="n">
-        <v>639463.1590683087</v>
+        <v>639775.80039723</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>127.8830122599993</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>124.6474003510075</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>51.97117195339681</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>208.8039902119444</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>31.40783425602871</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>19.88405377167465</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>202.4474380037342</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>321.4705024844196</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>254.2720886135183</v>
+        <v>105.6566155953059</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>604.7968300725072</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32086,13 +32086,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32320,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M18" t="n">
-        <v>281.0363767960755</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>513.0745614164377</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>303.402437346475</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>593.5422977113952</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>303.402437346475</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34137,7 +34137,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>467.1465236515247</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>593.5422977113961</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>273.7620932913065</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>462.2005856280628</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35968,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M18" t="n">
-        <v>138.9023428740572</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>374.5201816365636</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>165.560998372116</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>462.2005856280619</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.560998372116</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>328.5921438716505</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>462.2005856280628</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
